--- a/Kartesische Brettkoordinaten.xlsx
+++ b/Kartesische Brettkoordinaten.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Entwicklung_DKC\Python\Python progammieren\Othello\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Othello" sheetId="2" r:id="rId1"/>
     <sheet name="Beispielzüge" sheetId="3" r:id="rId2"/>
     <sheet name="KI" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,9 +203,6 @@
     <t>6a. wenn auf Feld x+n,y ein weisser Stein liegt, lege virtuell einen weissen Stein auf Feld 0,1</t>
   </si>
   <si>
-    <t>x,y-Koordinaten</t>
-  </si>
-  <si>
     <t>0,0</t>
   </si>
   <si>
@@ -386,12 +378,15 @@
   </si>
   <si>
     <t>schwarz hat 2,2 gespielt, weiß 5,4 (schwarz hätte 1,4 spielen müssen !)</t>
+  </si>
+  <si>
+    <t>xy-Koordinaten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,8 +869,8 @@
   </sheetPr>
   <dimension ref="C2:AB65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +886,7 @@
   <sheetData>
     <row r="2" spans="3:28" ht="21" x14ac:dyDescent="0.35">
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>2</v>
@@ -956,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1002,28 +997,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1054,28 +1049,28 @@
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1112,28 +1107,28 @@
         <v>3</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1319,28 +1314,28 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="L12" s="1">
         <v>7</v>
@@ -1420,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="Y48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="3:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
@@ -3266,10 +3261,10 @@
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="20"/>
@@ -3366,13 +3361,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S6" s="21">
         <v>0.9</v>
@@ -3410,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R7">
         <v>100</v>
@@ -3452,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R8">
         <v>200</v>
@@ -3494,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R9">
         <v>-100</v>
@@ -3536,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R10">
         <v>-200</v>
@@ -3578,7 +3573,7 @@
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R11">
         <v>300</v>
@@ -3620,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
@@ -3653,7 +3648,7 @@
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -3844,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3968,7 @@
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
@@ -4132,7 +4127,7 @@
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,7 +4288,7 @@
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
@@ -4452,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="M49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
